--- a/biology/Zoologie/Épervier_de_Frances/Épervier_de_Frances.xlsx
+++ b/biology/Zoologie/Épervier_de_Frances/Épervier_de_Frances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pervier_de_Frances</t>
+          <t>Épervier_de_Frances</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Accipiter francesiae
 L'Épervier de Frances (Accipiter francesiae précédemment Accipiter francesii) est une espèce d'oiseaux appartenant au groupe des rapaces diurnes et à la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pervier_de_Frances</t>
+          <t>Épervier_de_Frances</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 30 à 35 cm [citation nécessaire], la femelle étant un peu plus grande que le mâle.
 Le mâle présente le dessus de la tête, les joues, les parties supérieures du corps (y compris le dessus des ailes) et la queue gris bleu sombre et la gorge blanche.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pervier_de_Frances</t>
+          <t>Épervier_de_Frances</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, 4 sous-espèces ont été décrites :
 Accipiter francesiae brutus  (Schlegel, 1865) - Mayotte
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pervier_de_Frances</t>
+          <t>Épervier_de_Frances</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des espèces d'oiseaux de Madagascar</t>
         </is>
